--- a/ExcelConfig/天赋表.xlsx
+++ b/ExcelConfig/天赋表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="1485" yWindow="-135" windowWidth="18885" windowHeight="9360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="TalentConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -20,8 +20,19 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0">
       <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
         <r>
           <rPr>
             <b/>
@@ -30,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>作者:</t>
+          <t>:</t>
         </r>
         <r>
           <rPr>
@@ -133,7 +144,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">属性枚举
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,17 +182,22 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-降低百分比</t>
+属性值</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
+      <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -175,7 +207,36 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>属性枚举</t>
+          <t xml:space="preserve">
+属性枚举
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+属性值
+</t>
         </r>
       </text>
     </comment>
@@ -184,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,10 +289,6 @@
   </si>
   <si>
     <t>参数7</t>
-  </si>
-  <si>
-    <t>增加全体攻击500</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>天赋名称</t>
@@ -250,34 +307,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>脸大嘲讽</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>首轮全体技能cd清零</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐僧肉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>干粮消耗降低50%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>透视眼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>对，没错，你可以看的更多，更远！</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>就是干</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Desctription</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,13 +351,430 @@
   </si>
   <si>
     <t>Pars7</t>
+  </si>
+  <si>
+    <t>地图可视范围+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干粮消耗减半仅对探索地图生效，不影响战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原本走</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>步消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修正为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>步消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生命</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受伤害</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命中率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闪避率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有天赋属性是叠加计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋获取方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.成就点数累计达成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.仅限购买途径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍生命+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍生命+50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍生命+75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.随机事件获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗初始技能无冷却</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图探索中干粮消耗减半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍生命+100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍造成伤害+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍造成伤害+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍造成伤害+20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍造成伤害+30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍受到伤害-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍受到伤害-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍受到伤害-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍受到伤害-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避率+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避率+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率+2%，闪避+2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避+5% 伤害+30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队伍生命</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受到伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-20</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍生命50 受到伤害-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼观六路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先发制人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节约成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家级耐寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级耐寒</t>
+  </si>
+  <si>
+    <t>中级耐寒</t>
+  </si>
+  <si>
+    <t>高级耐寒</t>
+  </si>
+  <si>
+    <t>初级反伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中级反伤 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级反伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家级反伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级护佑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级护佑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级护佑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家级护佑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高阶精准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高阶灵巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生灵庇佑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强健体魄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁垒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +856,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -431,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -440,6 +899,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -458,7 +919,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -500,7 +961,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,7 +996,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -746,31 +1207,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -781,26 +1242,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="25.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -811,34 +1275,40 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -855,10 +1325,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
@@ -875,8 +1345,14 @@
       <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -884,130 +1360,653 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2">
+        <v>4</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3</v>
+      </c>
+      <c r="I17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2">
+        <v>4</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2">
+        <v>4</v>
+      </c>
+      <c r="H19" s="2">
+        <v>4</v>
+      </c>
+      <c r="I19" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2">
+        <v>4</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2">
+        <v>4</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>30</v>
+      </c>
+      <c r="G23" s="2">
+        <v>4</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2">
+        <v>200</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
+      <c r="K23" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="E5" s="4">
+      <c r="C24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="F24" s="2">
+        <v>50</v>
+      </c>
+      <c r="G24" s="2">
+        <v>4</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>50</v>
+      </c>
+      <c r="J24" s="2">
+        <v>3</v>
+      </c>
+      <c r="K24" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="C25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>80</v>
+      </c>
+      <c r="G25" s="2">
+        <v>4</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2">
+        <v>500</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2</v>
+      </c>
+      <c r="K25" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="C26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="F26" s="2">
+        <v>100</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4</v>
+      </c>
+      <c r="H26" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="4">
-        <v>500</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="I26" s="2">
+        <v>50</v>
+      </c>
+      <c r="J26" s="2">
+        <v>3</v>
+      </c>
+      <c r="K26" s="2">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:S2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/天赋表.xlsx
+++ b/ExcelConfig/天赋表.xlsx
@@ -353,10 +353,6 @@
     <t>Pars7</t>
   </si>
   <si>
-    <t>地图可视范围+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>干粮消耗减半仅对探索地图生效，不影响战斗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -767,6 +763,28 @@
   </si>
   <si>
     <t>壁垒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地图可视范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+1</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1248,7 +1266,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1278,10 +1296,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>22</v>
@@ -1366,10 +1384,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>15</v>
@@ -1401,10 +1419,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1414,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1423,10 +1441,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1438,16 +1456,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -1459,16 +1477,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -1489,10 +1507,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1513,10 +1531,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -1537,10 +1555,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
@@ -1558,16 +1576,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
@@ -1585,16 +1603,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
@@ -1612,16 +1630,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
@@ -1639,16 +1657,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
@@ -1666,16 +1684,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
@@ -1696,10 +1714,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
@@ -1717,16 +1735,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2">
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
@@ -1748,10 +1766,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="3">
         <v>3</v>
@@ -1772,10 +1790,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
@@ -1793,16 +1811,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2">
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
@@ -1820,16 +1838,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2">
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -1847,16 +1865,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2">
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -1874,16 +1892,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2">
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
@@ -1912,10 +1930,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="3">
         <v>2</v>
@@ -1944,10 +1962,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -1976,10 +1994,10 @@
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
